--- a/Phenotypic_Data/Reliability_Data/Reliability_Calculations.xlsx
+++ b/Phenotypic_Data/Reliability_Data/Reliability_Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu.sharepoint.com/sites/Chris/Shared Documents/General/GitHub_Repositories/OREI_Participatory_Breeding_ML_Predictions/Phenotypic_Data/Reliability_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EACAC3B-BFA1-4A13-B559-412A7473A135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1EACAC3B-BFA1-4A13-B559-412A7473A135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103034D4-8146-4EE9-B8E8-4F29BC8D5D1E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1448,13 +1448,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>-6.710000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>-84.629999999999981</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>-71.38000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>7.9899999999999949</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>-51.84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>-31.019999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>9.6000000000000227</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>-60.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>-52.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>10.700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>8.0999999999999943</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>-10.545482030000009</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>-47.280729100000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>-77.436374870000009</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>-34.431081500000005</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>-59.180630399999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>-26.508590599999991</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>-68.523457700000009</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1.1399999999999864</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>-21.579999999999984</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>-62.27000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>14.489999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>-47.190000000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>9.5100000000000051</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>29.515761889999993</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>-43.500168099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>-64.160775900000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>-39.642712099999983</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>10.212194000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>-68.621533499999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>-79.012142400000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>-31.499999999999986</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>-30.400000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>-37.400000000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>-2.0999999999999943</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>31.999999999999986</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>17.099999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>-44.81</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>-46.889999999999986</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>-62.86</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0.48000000000000398</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>-66.960000000000008</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>-60.629999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>7</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>7</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="I47" s="25"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>11.834032000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>8.3822150000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>6.1242999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>10.778095</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>8.0982089999999989</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>9.671009999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>4.3543099999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>13.022549999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>9.8661799999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>7.9885099999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>8.6547799999999988</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>4.858661826953</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>13.47934514272</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>10.273839264660001</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>11.47733645448</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>10.8195365229</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>13.69086903599</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3342,13 +3342,13 @@
         <v>12.8352589456</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H66">
         <f>_xlfn.STDEV.S(H46:H65)</f>
         <v>2.7968019789293908</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>24.810000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>-20.099999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>-52.38000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>-64.95</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>-42.620000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>7.519999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>-18.790000000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>-50.059999999999974</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>-65.210000000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>-38.019999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>8.4500000000000028</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>-39.350000000000009</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>-49.760000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>-14.86</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>-44.049999999999983</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>-75.2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>-47.57</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>-53.690000000000012</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>-11.030000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>-14.949999999999989</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>-44.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>-21.709999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>9.9000000000000057</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>-49.830000000000013</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>-20.230000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>1.2000000000000171</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>-47.800000000000011</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>-7.0999999999999943</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>-2.6000000000000085</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>87.109511989999987</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>-28.215793200000007</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>12.454473499999978</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>-16.266363799999993</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>-14.004733299999998</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>-55.707486200000005</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>-33.500556700000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>-25.999999999999986</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>4.7000000000000171</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>54.100000000000009</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>-8.1056707200000062</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>-29.142809799999981</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>-4.9880390000000148</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>3.5280896000000155</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>20.655071700000008</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>-16.685377899999992</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>-28.915321000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>-0.79999999999998295</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>-20.800000000000011</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>4.4000000000000057</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>-3.4000000000000057</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>26.800000000000011</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>106.16657198999999</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>-21.988813199999981</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>28.139642499999979</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>-6.3700845999999842</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>-22.718655699999999</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -5291,14 +5291,14 @@
         <v>189.27686739999999</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H162" si="4">G131*0.0673</f>
+        <f t="shared" ref="H131:H158" si="4">G131*0.0673</f>
         <v>12.738333176019999</v>
       </c>
       <c r="I131" s="1">
         <v>-14.153578900000014</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>-63.929169600000009</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>9.1000000000000227</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>-50.300000000000011</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>4.4000000000000057</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>33.800000000000011</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>106.89148989</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>-41.836379999999991</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>14.00674939999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>-20.401521799999983</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>-10.570317799999998</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>-27.213764999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>-37.210532199999989</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>-2.0999999999999943</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>-39.599999999999994</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>-53.7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>67.955063389999992</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>-30.6034358</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>-37.607750500000009</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>-43.048699799999994</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>-56.951497199999991</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>-55.166756800000002</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6125,9 +6125,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>24.810000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>-18.790000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>-11.030000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>-6.710000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>9.6000000000000227</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>-10.545482030000009</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>-44.81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>1.1399999999999864</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>-31.499999999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>29.515761889999993</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>-14.86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1.2000000000000171</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>87.109511989999987</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>-25.999999999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>-8.1056707200000062</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>-0.79999999999998295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>106.16657198999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>9.1000000000000227</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>106.89148989</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>-2.0999999999999943</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>67.955063389999992</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>-47.280729100000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>-43.500168099999996</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>-28.215793200000007</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>-29.142809799999981</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>-21.988813199999981</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>-41.836379999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>-30.6034358</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>-20.099999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>-50.059999999999974</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>-14.949999999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>-84.629999999999981</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>-46.889999999999986</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>-21.579999999999984</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>-44.049999999999983</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>-77.436374870000009</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>-30.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>-64.160775900000004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>12.454473499999978</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>-4.9880390000000148</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>28.139642499999979</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>14.00674939999999</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>-37.607750500000009</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>-52.38000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>7</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>-65.210000000000008</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>7</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>-44.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>7</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>-71.38000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>7</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>-62.86</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>7</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>-62.27000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>-75.2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>-38.019999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>7</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>-21.709999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>-64.95</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>7</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>8.4500000000000028</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>7</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>9.9000000000000057</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>7</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>7.9899999999999949</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0.48000000000000398</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>14.489999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>7</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>-47.57</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>7</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>-42.620000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>7</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>-39.350000000000009</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>7</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>-49.830000000000013</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>-51.84</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>-60.599999999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>-34.431081500000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>-66.960000000000008</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>7</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>-47.190000000000012</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>-37.400000000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>-39.642712099999983</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>-53.690000000000012</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>-47.800000000000011</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>-16.266363799999993</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>3.5280896000000155</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>-20.800000000000011</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>-6.3700845999999842</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>-50.300000000000011</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>-20.401521799999983</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>-39.599999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>-43.048699799999994</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>-52.099999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>-59.180630399999998</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>-2.0999999999999943</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>10.212194000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>-7.0999999999999943</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>-14.004733299999998</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>4.7000000000000171</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>20.655071700000008</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>4.4000000000000057</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>-22.718655699999999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>4.4000000000000057</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>-10.570317799999998</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>-56.951497199999991</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>10.700000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>-26.508590599999991</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>31.999999999999986</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>-68.621533499999998</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>-2.6000000000000085</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>-55.707486200000005</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>54.100000000000009</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>-16.685377899999992</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>-3.4000000000000057</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>-14.153578900000014</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>-27.213764999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>-53.7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>-55.166756800000002</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>7</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>8.0999999999999943</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>7</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>17.099999999999994</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>7</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>7</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>7</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>26.800000000000011</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>7</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>33.800000000000011</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>7</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>7</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>7.519999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>7</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>-49.760000000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>7</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>-20.230000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>-31.019999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>-68.523457700000009</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>-60.629999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>9.5100000000000051</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>-79.012142400000002</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>7</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>7</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>-33.500556700000004</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>7</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>-28.915321000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>7</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>-63.929169600000009</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>7</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>-37.210532199999989</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>7</v>
       </c>
@@ -9706,15 +9706,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.73046875" style="1"/>
-    <col min="12" max="12" width="10.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="8.73046875" style="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>-1.2645670000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>-3.369037999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>-4.3886330000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>-2.5587459999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>-2.6482550000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>-3.3488480000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>-0.74231900000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>-1.0061349999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>-3.0116749999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>-1.4610829999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>0.66627000000000036</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>-3.3535590000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>-1.3614790000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>-0.45158300000000051</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>-5.6955989999999987</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>-4.8038740000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>0.53772699999999962</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>-2.0876459999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>-3.0157130000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>-3.1556969999999991</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>-4.2304779999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>3.230400000000027E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>-4.5064080000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>-4.0803989999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>7.6721999999999083E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>-1.4523339999999989</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>-4.1907710000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>0.97517699999999963</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>-3.1758870000000008</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>0.64002300000000034</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>-1.000078</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>-2.964564999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>-5.0609599999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>-3.2014610000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>-3.6133370000000009</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -11551,17 +11551,19 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="8.73046875" style="1"/>
-    <col min="12" max="12" width="10.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="8.73046875" style="1"/>
+    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11620,7 +11622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -11687,7 +11689,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11754,7 +11756,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -11821,7 +11823,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11888,7 +11890,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11955,7 +11957,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -12022,7 +12024,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12089,7 +12091,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -12123,7 +12125,7 @@
         <v>-2.0459200000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>-2.5170200000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>-0.14132999999999962</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -12225,7 +12227,7 @@
         <v>2.1535999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -12259,7 +12261,7 @@
         <v>1.1508299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -12293,7 +12295,7 @@
         <v>8.076000000000115E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>2.5035600000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -12361,7 +12363,7 @@
         <v>-3.2169400000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -12395,7 +12397,7 @@
         <v>-0.47782999999999959</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -12429,7 +12431,7 @@
         <v>-0.17498000000000058</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -12463,7 +12465,7 @@
         <v>1.6152</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -12497,7 +12499,7 @@
         <v>-1.7497999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -12531,7 +12533,7 @@
         <v>4.4889099999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -12565,7 +12567,7 @@
         <v>-2.4901</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -12599,7 +12601,7 @@
         <v>0.31631000000000115</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -12633,7 +12635,7 @@
         <v>3.6409300000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -12667,7 +12669,7 @@
         <v>2.1199499999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>-5.3839999999998854E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -12735,7 +12737,7 @@
         <v>5.0340400000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -12769,7 +12771,7 @@
         <v>-1.3998400000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -12803,7 +12805,7 @@
         <v>0.29612000000000038</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -12837,7 +12839,7 @@
         <v>-0.22882000000000038</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -12871,7 +12873,7 @@
         <v>1.8036400000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>0.61243000000000147</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>4.69754</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -12973,7 +12975,7 @@
         <v>-3.3851900000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -13007,7 +13009,7 @@
         <v>0.29612000000000038</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -13041,7 +13043,7 @@
         <v>0.24227999999999961</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -13075,7 +13077,7 @@
         <v>2.2747400000000009</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -13109,7 +13111,7 @@
         <v>-0.14132999999999962</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -13143,7 +13145,7 @@
         <v>-0.63934999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -13177,7 +13179,7 @@
         <v>-2.6650799999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -13211,7 +13213,7 @@
         <v>-2.4901</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>-3.6140099999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -13296,12 +13298,12 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13360,7 +13362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13427,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13494,7 +13496,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13561,7 +13563,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -13628,7 +13630,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -13695,7 +13697,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13762,7 +13764,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13829,7 +13831,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13863,7 +13865,7 @@
         <v>1.9864107751969995</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>-2.9275613131299996</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -13931,7 +13933,7 @@
         <v>-4.31802021807</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>-2.6679545243299989</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -13999,7 +14001,7 @@
         <v>0.68728065620000067</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -14033,7 +14035,7 @@
         <v>-4.6182292045499995</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -14067,7 +14069,7 @@
         <v>-5.3175171835199997</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -14101,7 +14103,7 @@
         <v>5.8624701569269995</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -14135,7 +14137,7 @@
         <v>-1.8989228823600004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -14169,7 +14171,7 @@
         <v>0.8381860665499985</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -14203,7 +14205,7 @@
         <v>-1.0947262837399996</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -14237,7 +14239,7 @@
         <v>-0.94251855108999982</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -14271,7 +14273,7 @@
         <v>-3.7491138212600004</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -14305,7 +14307,7 @@
         <v>-2.2545874659100003</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -14339,7 +14341,7 @@
         <v>-0.54551163945600045</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -14373,7 +14375,7 @@
         <v>-1.9613110995399987</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -14407,7 +14409,7 @@
         <v>-0.33569502470000101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -14441,7 +14443,7 @@
         <v>0.23744043008000104</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -14475,7 +14477,7 @@
         <v>1.3900863254100004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>-1.1229259326699994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -14543,7 +14545,7 @@
         <v>-1.9460011033000004</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -14577,7 +14579,7 @@
         <v>7.1450102949269994</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -14611,7 +14613,7 @@
         <v>-1.4798471283599988</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -14645,7 +14647,7 @@
         <v>1.8937979402499985</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -14679,7 +14681,7 @@
         <v>-0.42870669357999891</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -14713,7 +14715,7 @@
         <v>-1.5289655286099999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +14749,7 @@
         <v>-0.9525358599700009</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -14781,7 +14783,7 @@
         <v>-4.3024331140800003</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -14815,7 +14817,7 @@
         <v>7.1937972695969998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -14849,7 +14851,7 @@
         <v>-2.8155883739999994</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -14883,7 +14885,7 @@
         <v>0.94265423461999931</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -14917,7 +14919,7 @@
         <v>-1.373022417139999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -14951,7 +14953,7 @@
         <v>-0.71138238793999986</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -14985,7 +14987,7 @@
         <v>-1.8314863844999996</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -15019,7 +15021,7 @@
         <v>-2.5042688170599994</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -15053,7 +15055,7 @@
         <v>4.5733757661469996</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -15087,7 +15089,7 @@
         <v>-2.0596112293399997</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -15121,7 +15123,7 @@
         <v>-2.5310016086500005</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -15155,7 +15157,7 @@
         <v>-2.8971774965399995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>-3.8328357615599993</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -15223,7 +15225,7 @@
         <v>-3.7127227326400001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -15273,17 +15275,17 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.73046875" style="1"/>
-    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.73046875" style="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.73046875" style="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -15319,7 +15321,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
@@ -15345,7 +15347,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
@@ -15371,7 +15373,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -15397,7 +15399,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -15423,7 +15425,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
@@ -15449,7 +15451,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -15475,7 +15477,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
@@ -15501,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -15511,7 +15513,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -15537,7 +15539,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
@@ -15563,7 +15565,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
@@ -15589,7 +15591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15615,7 +15617,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
@@ -15641,7 +15643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
@@ -15667,7 +15669,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -15703,7 +15705,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -15729,7 +15731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
@@ -15755,7 +15757,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
@@ -15781,7 +15783,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
@@ -15833,7 +15835,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
@@ -15859,7 +15861,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
@@ -15899,14 +15901,14 @@
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="8.73046875" style="1"/>
-    <col min="13" max="13" width="10.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.73046875" style="1"/>
+    <col min="12" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15965,7 +15967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -16032,7 +16034,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -16099,7 +16101,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -16166,7 +16168,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -16233,7 +16235,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -16300,7 +16302,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -16367,7 +16369,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16434,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -16501,7 +16503,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -16568,7 +16570,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -16702,7 +16704,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -16769,7 +16771,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -16803,7 +16805,7 @@
         <v>-0.70971094061900064</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -16837,7 +16839,7 @@
         <v>-3.1819930684300002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -16871,7 +16873,7 @@
         <v>-5.2114680287510007</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -16905,7 +16907,7 @@
         <v>-2.3172117849500005</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -16939,7 +16941,7 @@
         <v>-3.9828564259199997</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16975,7 @@
         <v>-1.7840281473799993</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -17007,7 +17009,7 @@
         <v>-4.6116287032100001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H21">
         <f>_xlfn.STDEV.S(H2:H20)</f>
         <v>1.9370171411985957</v>
@@ -17016,7 +17018,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -17050,7 +17052,7 @@
         <v>7.6721999999999083E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -17084,7 +17086,7 @@
         <v>-1.4523339999999989</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -17118,7 +17120,7 @@
         <v>-4.1907710000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -17152,7 +17154,7 @@
         <v>0.97517699999999963</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -17186,7 +17188,7 @@
         <v>-3.1758870000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -17221,7 +17223,7 @@
       </c>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -17255,7 +17257,7 @@
         <v>1.9864107751969995</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -17289,7 +17291,7 @@
         <v>-2.9275613131299996</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -17323,7 +17325,7 @@
         <v>-4.31802021807</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -17357,7 +17359,7 @@
         <v>-2.6679545243299989</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -17391,7 +17393,7 @@
         <v>0.68728065620000067</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -17425,7 +17427,7 @@
         <v>-4.6182292045499995</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -17459,7 +17461,7 @@
         <v>-5.3175171835199997</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -17493,7 +17495,7 @@
         <v>-2.1199499999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -17527,7 +17529,7 @@
         <v>-2.0459200000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -17561,7 +17563,7 @@
         <v>-2.5170200000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -17595,7 +17597,7 @@
         <v>-0.14132999999999962</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -17629,7 +17631,7 @@
         <v>2.1535999999999991</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -17663,7 +17665,7 @@
         <v>1.1508299999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H41">
         <f>_xlfn.STDEV.S(H22:H40)</f>
         <v>2.2509030206921219</v>
@@ -17671,7 +17673,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -17705,7 +17707,7 @@
         <v>-3.0157130000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -17739,7 +17741,7 @@
         <v>-3.1556969999999991</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -17773,7 +17775,7 @@
         <v>-4.2304779999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -17807,7 +17809,7 @@
         <v>3.230400000000027E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -17841,7 +17843,7 @@
         <v>-4.5064080000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -17875,7 +17877,7 @@
         <v>-4.0803989999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H48">
         <f>_xlfn.STDEV.S(H42:H47)</f>
         <v>2.1240999824567335</v>
@@ -17883,7 +17885,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -17917,7 +17919,7 @@
         <v>1.6697130000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -17951,7 +17953,7 @@
         <v>-1.3527299999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -17985,7 +17987,7 @@
         <v>-3.5251740000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -18019,7 +18021,7 @@
         <v>-1.4805999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -18053,7 +18055,7 @@
         <v>-4.3711349999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -18087,7 +18089,7 @@
         <v>-2.8683260000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -18121,7 +18123,7 @@
         <v>0.50609599999999977</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H56">
         <f>_xlfn.STDEV.S(H49:H55)</f>
         <v>3.398361397350345</v>
@@ -18129,7 +18131,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -18163,7 +18165,7 @@
         <v>-1.2645670000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -18197,7 +18199,7 @@
         <v>-3.369037999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -18231,7 +18233,7 @@
         <v>-4.3886330000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -18265,7 +18267,7 @@
         <v>-2.5587459999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -18299,7 +18301,7 @@
         <v>0.56868500000000022</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -18333,7 +18335,7 @@
         <v>-2.6482550000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -18367,7 +18369,7 @@
         <v>-3.3488480000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H64">
         <f>_xlfn.STDEV.S(H57:H63)</f>
         <v>1.8019485454959594</v>
@@ -18375,7 +18377,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -18409,7 +18411,7 @@
         <v>-1.000078</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -18443,7 +18445,7 @@
         <v>-2.964564999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -18477,7 +18479,7 @@
         <v>-5.0609599999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -18511,7 +18513,7 @@
         <v>-3.2014610000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -18545,7 +18547,7 @@
         <v>-3.6133370000000009</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -18579,7 +18581,7 @@
         <v>-0.30285000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H71">
         <f>_xlfn.STDEV.S(H65:H70)</f>
         <v>2.5528682326698684</v>
@@ -18587,7 +18589,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -18621,7 +18623,7 @@
         <v>-0.74231900000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -18655,7 +18657,7 @@
         <v>-1.0061349999999991</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -18689,7 +18691,7 @@
         <v>-3.0116749999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -18723,7 +18725,7 @@
         <v>-1.4610829999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -18757,7 +18759,7 @@
         <v>0.66627000000000036</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -18791,7 +18793,7 @@
         <v>-3.3535590000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -18825,7 +18827,7 @@
         <v>-1.3614790000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H79">
         <f>_xlfn.STDEV.S(H72:H78)</f>
         <v>2.1040173650751868</v>
@@ -18833,7 +18835,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -18867,7 +18869,7 @@
         <v>8.076000000000115E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -18901,7 +18903,7 @@
         <v>2.5035600000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -18935,7 +18937,7 @@
         <v>-3.2169400000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -18969,7 +18971,7 @@
         <v>-0.47782999999999959</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -19003,7 +19005,7 @@
         <v>-0.17498000000000058</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -19037,7 +19039,7 @@
         <v>1.6152</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -19071,7 +19073,7 @@
         <v>5.8624701569269995</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -19105,7 +19107,7 @@
         <v>-1.8989228823600004</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -19139,7 +19141,7 @@
         <v>0.8381860665499985</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -19173,7 +19175,7 @@
         <v>-1.0947262837399996</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -19207,7 +19209,7 @@
         <v>-0.94251855108999982</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -19241,7 +19243,7 @@
         <v>-3.7491138212600004</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -19275,7 +19277,7 @@
         <v>-2.2545874659100003</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H93">
         <f>_xlfn.STDEV.S(H80:H92)</f>
         <v>1.2804210412199684</v>
@@ -19283,7 +19285,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -19317,7 +19319,7 @@
         <v>-1.7497999999999989</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -19351,7 +19353,7 @@
         <v>4.4889099999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -19385,7 +19387,7 @@
         <v>-2.4901</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -19419,7 +19421,7 @@
         <v>0.31631000000000115</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -19453,7 +19455,7 @@
         <v>3.6409300000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -19487,7 +19489,7 @@
         <v>2.1199499999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -19521,7 +19523,7 @@
         <v>-0.54551163945600045</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -19555,7 +19557,7 @@
         <v>-1.9613110995399987</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -19589,7 +19591,7 @@
         <v>-0.33569502470000101</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -19623,7 +19625,7 @@
         <v>0.23744043008000104</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -19657,7 +19659,7 @@
         <v>1.3900863254100004</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -19691,7 +19693,7 @@
         <v>-1.1229259326699994</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -19725,7 +19727,7 @@
         <v>-1.9460011033000004</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H107">
         <f>_xlfn.STDEV.S(H94:H106)</f>
         <v>2.2056708213538183</v>
@@ -19733,7 +19735,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -19767,7 +19769,7 @@
         <v>-5.3839999999998854E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -19801,7 +19803,7 @@
         <v>5.0340400000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -19835,7 +19837,7 @@
         <v>-1.3998400000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -19869,7 +19871,7 @@
         <v>0.29612000000000038</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -19903,7 +19905,7 @@
         <v>-0.22882000000000038</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -19937,7 +19939,7 @@
         <v>1.8036400000000008</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -19971,7 +19973,7 @@
         <v>7.1450102949269994</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -20005,7 +20007,7 @@
         <v>-1.4798471283599988</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -20039,7 +20041,7 @@
         <v>1.8937979402499985</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -20073,7 +20075,7 @@
         <v>-0.42870669357999891</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -20107,7 +20109,7 @@
         <v>-1.5289655286099999</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -20141,7 +20143,7 @@
         <v>-0.9525358599700009</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -20175,7 +20177,7 @@
         <v>-4.3024331140800003</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H121">
         <f>_xlfn.STDEV.S(H108:H120)</f>
         <v>1.5499570282563817</v>
@@ -20183,7 +20185,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -20217,7 +20219,7 @@
         <v>0.61243000000000147</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -20251,7 +20253,7 @@
         <v>4.69754</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -20285,7 +20287,7 @@
         <v>-3.3851900000000006</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -20319,7 +20321,7 @@
         <v>0.29612000000000038</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -20353,7 +20355,7 @@
         <v>0.24227999999999961</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -20387,7 +20389,7 @@
         <v>2.2747400000000009</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -20421,7 +20423,7 @@
         <v>7.1937972695969998</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -20455,7 +20457,7 @@
         <v>-2.8155883739999994</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -20489,7 +20491,7 @@
         <v>0.94265423461999931</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -20523,7 +20525,7 @@
         <v>-1.373022417139999</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -20557,7 +20559,7 @@
         <v>-0.71138238793999986</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -20591,7 +20593,7 @@
         <v>-1.8314863844999996</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -20625,7 +20627,7 @@
         <v>-2.5042688170599994</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H135">
         <f>_xlfn.STDEV.S(H122:H134)</f>
         <v>1.0489745980012706</v>
@@ -20633,7 +20635,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -20667,7 +20669,7 @@
         <v>-0.14132999999999962</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -20701,7 +20703,7 @@
         <v>-0.63934999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -20735,7 +20737,7 @@
         <v>-2.6650799999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -20769,7 +20771,7 @@
         <v>-2.4901</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -20803,7 +20805,7 @@
         <v>-3.6140099999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -20837,7 +20839,7 @@
         <v>1.78345</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -20871,7 +20873,7 @@
         <v>4.5733757661469996</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -20905,7 +20907,7 @@
         <v>-2.0596112293399997</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -20939,7 +20941,7 @@
         <v>-2.5310016086500005</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -20973,7 +20975,7 @@
         <v>-2.8971774965399995</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -21007,7 +21009,7 @@
         <v>-3.8328357615599993</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -21041,7 +21043,7 @@
         <v>-3.7127227326400001</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -21075,7 +21077,7 @@
         <v>-4.2246369118600002</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H149">
         <f>_xlfn.STDEV.S(H136:H148)</f>
         <v>2.3023910649700592</v>
@@ -21090,6 +21092,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1c3033c6-850d-4082-a86a-0d1cef7ddc1b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7861a92-94f5-49ee-9de7-97ce60660b0d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B30089CC027E794F972C72379E483499" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb2c3e949058d2b0808cd053c4bf4307">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f7861a92-94f5-49ee-9de7-97ce60660b0d" xmlns:ns3="1c3033c6-850d-4082-a86a-0d1cef7ddc1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61e701cf719dfe069491a84306416bba" ns2:_="" ns3:_="">
     <xsd:import namespace="f7861a92-94f5-49ee-9de7-97ce60660b0d"/>
@@ -21326,34 +21348,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1c3033c6-850d-4082-a86a-0d1cef7ddc1b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7861a92-94f5-49ee-9de7-97ce60660b0d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577543FF-2D30-4F26-BEE7-61B5FF9AA44D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D89A614-D438-451E-ABDB-14FB9E071A20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1c3033c6-850d-4082-a86a-0d1cef7ddc1b"/>
+    <ds:schemaRef ds:uri="f7861a92-94f5-49ee-9de7-97ce60660b0d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8C5C8A-E5ED-4358-BB97-D593319721C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8C5C8A-E5ED-4358-BB97-D593319721C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D89A614-D438-451E-ABDB-14FB9E071A20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577543FF-2D30-4F26-BEE7-61B5FF9AA44D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7861a92-94f5-49ee-9de7-97ce60660b0d"/>
+    <ds:schemaRef ds:uri="1c3033c6-850d-4082-a86a-0d1cef7ddc1b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>